--- a/pz11/Машина 1.xlsx
+++ b/pz11/Машина 1.xlsx
@@ -1,347 +1,328 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
-    <t xml:space="preserve">Код изделия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование изделия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Код сборки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование сборки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Код компоненты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование компоненты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кол-во
-на
-сборку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАШ-44953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Камаз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМ-45536873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кузов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМ-25844564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Салон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМ-62237445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подвеска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМ-43779529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двигатель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трансмиссия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-П62ЭВГЕ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каркас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-З9РЗРШИ6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крыша</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-СПШЕ228Б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-ЫЭПТЖ9АЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бамперы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-В8БПЖЬ2Я</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-СЦЯ49УИЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Капот</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-ЭД46НФСД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Багажник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОСТ-45243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Болт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОСТ-25424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гайка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОСТ-58344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Штифт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОСТ-72556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шайба</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОСТ-42353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шуруп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-ТД3Т2РДЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крылья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJKUF7P6G5FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сиденья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KQPZ3PEL99RR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Панель приборов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4SNDKWG4RM6Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рулевое колесо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3TR2ZVTNYDXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подлокотники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY5T55KLU73S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обивка салона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75X6MVQGV2HB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коврики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23X71QGV2HB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подушки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422BAXK4W5T7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передние амортизаторы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛУТ-МПВ4ИМО3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задние амортизаторы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛУТ-ЯХ49Ж8ПД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передние пружины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛУТ-ПЧДЧЖ35Ж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задние пружины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУМ-Т6ЕЦ4К5Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рычаги подвески</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛУТ-Т6ЕЦ4К5Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стабилизаторы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPTN6JMR24MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок цилиндров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNLV8AW7GWWB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поршневая группа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B9J9Z9DNEY59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Головка блока цилиндров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9NCFFW3NSJ32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клапанная система</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ZKABTXKN5J9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Турбонаддув</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMT8N73CSZMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Масляный насос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5JLWZ87HD9CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автоматическая коробка передач</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KFKWEQX4Y4JG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карданный вал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YA4ZHFJ4LYVN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дифференциал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KJCFWE3PY54L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передний привод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6CRRGEUCX63B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задний привод</t>
+    <t>Код изделия</t>
+  </si>
+  <si>
+    <t>Наименование изделия</t>
+  </si>
+  <si>
+    <t>Код сборки</t>
+  </si>
+  <si>
+    <t>Наименование сборки</t>
+  </si>
+  <si>
+    <t>Код компоненты</t>
+  </si>
+  <si>
+    <t>Наименование компоненты</t>
+  </si>
+  <si>
+    <t>Кол-во&amp;#10;на&amp;#10;сборку</t>
+  </si>
+  <si>
+    <t>МАШ-44953</t>
+  </si>
+  <si>
+    <t>Камаз</t>
+  </si>
+  <si>
+    <t>КАМ-45536873</t>
+  </si>
+  <si>
+    <t>Кузов</t>
+  </si>
+  <si>
+    <t>КАМ-25844564</t>
+  </si>
+  <si>
+    <t>Салон</t>
+  </si>
+  <si>
+    <t>КАМ-62237445</t>
+  </si>
+  <si>
+    <t>Подвеска</t>
+  </si>
+  <si>
+    <t>КАМ-43779529</t>
+  </si>
+  <si>
+    <t>Двигатель</t>
+  </si>
+  <si>
+    <t>Трансмиссия</t>
+  </si>
+  <si>
+    <t>ПУМ-П62ЭВГЕ2</t>
+  </si>
+  <si>
+    <t>Каркас</t>
+  </si>
+  <si>
+    <t>ПУМ-З9РЗРШИ6</t>
+  </si>
+  <si>
+    <t>Крыша</t>
+  </si>
+  <si>
+    <t>ПУМ-СПШЕ228Б</t>
+  </si>
+  <si>
+    <t>Двери</t>
+  </si>
+  <si>
+    <t>ПУМ-ЫЭПТЖ9АЯ</t>
+  </si>
+  <si>
+    <t>Бамперы</t>
+  </si>
+  <si>
+    <t>ПУМ-В8БПЖЬ2Я</t>
+  </si>
+  <si>
+    <t>Окна</t>
+  </si>
+  <si>
+    <t>ПУМ-СЦЯ49УИЖ</t>
+  </si>
+  <si>
+    <t>Капот</t>
+  </si>
+  <si>
+    <t>ПУМ-ЭД46НФСД</t>
+  </si>
+  <si>
+    <t>Багажник</t>
+  </si>
+  <si>
+    <t>ГОСТ-45243</t>
+  </si>
+  <si>
+    <t>Болт</t>
+  </si>
+  <si>
+    <t>ГОСТ-25424</t>
+  </si>
+  <si>
+    <t>Гайка</t>
+  </si>
+  <si>
+    <t>ГОСТ-58344</t>
+  </si>
+  <si>
+    <t>Штифт</t>
+  </si>
+  <si>
+    <t>ГОСТ-72556</t>
+  </si>
+  <si>
+    <t>Шайба</t>
+  </si>
+  <si>
+    <t>ГОСТ-42353</t>
+  </si>
+  <si>
+    <t>Шуруп</t>
+  </si>
+  <si>
+    <t>ПУМ-ТД3Т2РДЦ</t>
+  </si>
+  <si>
+    <t>Крылья</t>
+  </si>
+  <si>
+    <t>BJKUF7P6G5FC</t>
+  </si>
+  <si>
+    <t>Сиденья</t>
+  </si>
+  <si>
+    <t>KQPZ3PEL99RR</t>
+  </si>
+  <si>
+    <t>Панель приборов</t>
+  </si>
+  <si>
+    <t>4SNDKWG4RM6Z</t>
+  </si>
+  <si>
+    <t>Рулевое колесо</t>
+  </si>
+  <si>
+    <t>3TR2ZVTNYDXF</t>
+  </si>
+  <si>
+    <t>Подлокотники</t>
+  </si>
+  <si>
+    <t>KY5T55KLU73S</t>
+  </si>
+  <si>
+    <t>Обивка салона</t>
+  </si>
+  <si>
+    <t>75X6MVQGV2HB</t>
+  </si>
+  <si>
+    <t>Коврики</t>
+  </si>
+  <si>
+    <t>23X71QGV2HB</t>
+  </si>
+  <si>
+    <t>Подушки</t>
+  </si>
+  <si>
+    <t>422BAXK4W5T7</t>
+  </si>
+  <si>
+    <t>Передние амортизаторы</t>
+  </si>
+  <si>
+    <t>ЛУТ-МПВ4ИМО3</t>
+  </si>
+  <si>
+    <t>Задние амортизаторы</t>
+  </si>
+  <si>
+    <t>ЛУТ-ЯХ49Ж8ПД</t>
+  </si>
+  <si>
+    <t>Передние пружины</t>
+  </si>
+  <si>
+    <t>ЛУТ-ПЧДЧЖ35Ж</t>
+  </si>
+  <si>
+    <t>Задние пружины</t>
+  </si>
+  <si>
+    <t>ПУМ-Т6ЕЦ4К5Н</t>
+  </si>
+  <si>
+    <t>Рычаги подвески</t>
+  </si>
+  <si>
+    <t>ЛУТ-Т6ЕЦ4К5Н</t>
+  </si>
+  <si>
+    <t>Стабилизаторы</t>
+  </si>
+  <si>
+    <t>PPTN6JMR24MU</t>
+  </si>
+  <si>
+    <t>Блок цилиндров</t>
+  </si>
+  <si>
+    <t>PNLV8AW7GWWB</t>
+  </si>
+  <si>
+    <t>Поршневая группа</t>
+  </si>
+  <si>
+    <t>B9J9Z9DNEY59</t>
+  </si>
+  <si>
+    <t>Головка блока цилиндров</t>
+  </si>
+  <si>
+    <t>9NCFFW3NSJ32</t>
+  </si>
+  <si>
+    <t>Клапанная система</t>
+  </si>
+  <si>
+    <t>7ZKABTXKN5J9</t>
+  </si>
+  <si>
+    <t>Турбонаддув</t>
+  </si>
+  <si>
+    <t>PMT8N73CSZMN</t>
+  </si>
+  <si>
+    <t>Масляный насос</t>
+  </si>
+  <si>
+    <t>5JLWZ87HD9CK</t>
+  </si>
+  <si>
+    <t>Автоматическая коробка передач</t>
+  </si>
+  <si>
+    <t>KFKWEQX4Y4JG</t>
+  </si>
+  <si>
+    <t>Карданный вал</t>
+  </si>
+  <si>
+    <t>YA4ZHFJ4LYVN</t>
+  </si>
+  <si>
+    <t>Дифференциал</t>
+  </si>
+  <si>
+    <t>KJCFWE3PY54L</t>
+  </si>
+  <si>
+    <t>Передний привод</t>
+  </si>
+  <si>
+    <t>6CRRGEUCX63B</t>
+  </si>
+  <si>
+    <t>Задний привод</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -353,105 +334,379 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.03"/>
+    <col min="1" max="1" style="7" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -493,11 +748,11 @@
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -516,11 +771,11 @@
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -539,11 +794,11 @@
       <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -562,11 +817,11 @@
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -585,11 +840,11 @@
       <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -608,11 +863,11 @@
       <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -631,11 +886,11 @@
       <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -654,11 +909,11 @@
       <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -677,11 +932,11 @@
       <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -700,11 +955,11 @@
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -723,11 +978,11 @@
       <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -746,11 +1001,11 @@
       <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -769,11 +1024,11 @@
       <c r="F14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -792,11 +1047,11 @@
       <c r="F15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="6">
         <v>129</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -815,11 +1070,11 @@
       <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -838,11 +1093,11 @@
       <c r="F17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -861,11 +1116,11 @@
       <c r="F18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -884,11 +1139,11 @@
       <c r="F19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -907,11 +1162,11 @@
       <c r="F20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -930,11 +1185,11 @@
       <c r="F21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -953,11 +1208,11 @@
       <c r="F22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -976,11 +1231,11 @@
       <c r="F23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -999,11 +1254,11 @@
       <c r="F24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1022,11 +1277,11 @@
       <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1045,11 +1300,11 @@
       <c r="F26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1068,11 +1323,11 @@
       <c r="F27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1091,11 +1346,11 @@
       <c r="F28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1114,11 +1369,11 @@
       <c r="F29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1137,11 +1392,11 @@
       <c r="F30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -1160,11 +1415,11 @@
       <c r="F31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1183,11 +1438,11 @@
       <c r="F32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1206,11 +1461,11 @@
       <c r="F33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -1229,11 +1484,11 @@
       <c r="F34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -1252,11 +1507,11 @@
       <c r="F35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1275,11 +1530,11 @@
       <c r="F36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -1298,11 +1553,11 @@
       <c r="F37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -1321,11 +1576,11 @@
       <c r="F38" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1344,11 +1599,11 @@
       <c r="F39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -1367,11 +1622,11 @@
       <c r="F40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -1390,11 +1645,11 @@
       <c r="F41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1413,11 +1668,11 @@
       <c r="F42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -1436,17 +1691,11 @@
       <c r="F43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>